--- a/Nutrition/example_log.xlsx
+++ b/Nutrition/example_log.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kobi Cohen\PycharmProjects\NutritionLog\Nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1A976E-603D-4C09-9F40-799AA251E3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261CCE21-3EF2-4038-A9FD-8D7561581D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15084" yWindow="12960" windowWidth="13836" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="measures" sheetId="5" r:id="rId1"/>
+    <sheet name="daily sheet" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>last updated</t>
   </si>
@@ -53,14 +54,61 @@
   </si>
   <si>
     <t>total calories burned</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>BMR</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>protein bar</t>
+  </si>
+  <si>
+    <t>חטיף חלבון</t>
+  </si>
+  <si>
+    <t>יחידה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +132,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,36 +494,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8BD512-87F3-41DC-A0E1-084C08ABE67D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F223017-54E4-4202-8B29-66544897A1F4}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -476,6 +596,98 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>215</v>
+      </c>
+      <c r="E8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>211</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
     </row>
